--- a/05 Sent to Client/A4_final_report_from_CJ_Gilbert.xlsx
+++ b/05 Sent to Client/A4_final_report_from_CJ_Gilbert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CJ\Documents\_CJ-Stuff\Career Foundry\Data Immersion\Ach 4 - Python\2023-03 Instacart Basket Analysis\05 Sent to Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BF037F-3901-445C-9273-E50CA330CA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF1A9CF-2856-4605-AD35-CC96BCEDC1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Title Page" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,28 @@
     <sheet name="6. Visualizations" sheetId="7" r:id="rId6"/>
     <sheet name="7. Recommendations" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="232">
-  <si>
-    <t>Contents:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="241">
   <si>
     <t>Columns dropped</t>
   </si>
@@ -2913,9 +2921,6 @@
     <t>Return to Title page</t>
   </si>
   <si>
-    <t xml:space="preserve">      “The Instacart Online Grocery Shopping Dataset 2017”, Accessed from https://www.instacart.com/datasets/grocery-shopping-2017 on 3/6/2023</t>
-  </si>
-  <si>
     <t>Return to Top of Visualisations</t>
   </si>
   <si>
@@ -3211,13 +3216,47 @@
     </r>
   </si>
   <si>
-    <t>Fictitious customer information and fictitious prices for products created by CareerFoundry for the purposes of this project.</t>
-  </si>
-  <si>
     <t>Possible demographic classifications include region, age, gender, family status, income, and so on.   After thorough investigation of these possible classifications, the three profiles that yielded the most actionable insights were
   * Affluent users (based on income groupings)
   * Parents of babies (based on number of dependants and purchases in the babies department)
   * Pet owners (based on purchases in the pets department)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      “The Instacart Online Grocery Shopping Dataset 2017”, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Accessed from https://www.instacart.com/datasets/grocery-shopping-2017 on 3/6/2023</t>
+  </si>
+  <si>
+    <t>Links to Contents:</t>
+  </si>
+  <si>
+    <t>Project Description</t>
+  </si>
+  <si>
+    <t>github.com/cj-gilbert/Instacart-Python</t>
+  </si>
+  <si>
+    <t>(Python code and outputs)</t>
+  </si>
+  <si>
+    <t>External Link to Jupyter Notebooks</t>
+  </si>
+  <si>
+    <t>Fictitious customer information and prices for products created by CareerFoundry for the purposes of this project.</t>
+  </si>
+  <si>
+    <t>Questions?  Email me:  ms.cj.gilbert@gmail.com</t>
+  </si>
+  <si>
+    <t>Case Study Overview</t>
+  </si>
+  <si>
+    <t>cjgilbert.net/portfolio/instacart-targeted-marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instacart executives want to explore the data they have about their customers and sales patterns to find insights that will allow them to create targeted marketing campaigns for specific segments of their user base as well as promotions to increase usage during non-peak hours.
+This workbook documents how multiple data sets about orders, product information, and customer details were cleaned, transformed, merged, analyzed and visualized to answer the executives questions. </t>
   </si>
 </sst>
 </file>
@@ -3229,7 +3268,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3300,15 +3339,6 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -3578,20 +3608,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF0E6310"/>
@@ -3603,6 +3619,57 @@
       <b/>
       <sz val="12"/>
       <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3730,27 +3797,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="76">
+  <borders count="73">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </right>
-      <top style="dotted">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="dotted">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3765,36 +3817,6 @@
       </top>
       <bottom style="dotted">
         <color theme="2" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </right>
-      <top style="dotted">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </left>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4682,31 +4704,31 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4715,358 +4737,373 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="25" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="7" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="24" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="13" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="12" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="12" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="12" borderId="73" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="12" borderId="70" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="33" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="32" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="33" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="32" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="34" fillId="7" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="33" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="33" fillId="3" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="32" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13639,13 +13676,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6349</xdr:colOff>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>176210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>69272</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>38098</xdr:rowOff>
     </xdr:to>
@@ -13662,8 +13699,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="595167" y="747710"/>
-          <a:ext cx="7301923" cy="1195388"/>
+          <a:off x="595168" y="747710"/>
+          <a:ext cx="8410288" cy="1195388"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13719,7 +13756,7 @@
               <a:latin typeface="Adobe Fan Heiti Std B" panose="020B0700000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Adobe Fan Heiti Std B" panose="020B0700000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>Instacart Grocery Basket Analysis</a:t>
+            <a:t>Instacart Targeted Marketing Analysis</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13909,245 +13946,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5517</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>77408</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>550334</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="365350" y="4903408"/>
-          <a:ext cx="13117817" cy="2139045"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="28575" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1.) The grey boxes in the first row of the population flow</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> represent the original data sets as they were when you downloaded them. In the Total fields you need to add the count of the rows when you imported the data set into Jupyter. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2.) The second row of boxes (coloured) represents the data sets </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>after </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>you manipulated them, e.g., removed missing values and duplicates. In the Total fields you need to </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>add the count of the rows </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>after conducting these operations. This offers a visual oveview of how the data </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>flows </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>throughout the data consistency checks.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" b="0" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>3.) The third row, where also the arrows are coloured, represents the merges you performed between the datasets. In the Total fields you need to add the count of the rows in the merged datasets, so that you end up with the final dataset (in the red box). </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Keep in mind the final dataset should</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> be without exclusions (based on the exclusion flag).</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -23411,7 +23209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B13:C31"/>
+  <dimension ref="B5:V32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
@@ -23420,90 +23218,282 @@
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="2.42578125" customWidth="1"/>
     <col min="4" max="4" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="2:2" ht="18.75">
-      <c r="B13" s="92" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" ht="18.75">
-      <c r="B14" s="93" t="s">
+    <row r="5" spans="2:22">
+      <c r="P5" s="152"/>
+      <c r="Q5" s="152"/>
+      <c r="R5" s="152"/>
+      <c r="S5" s="152"/>
+      <c r="T5" s="152"/>
+      <c r="U5" s="152"/>
+      <c r="V5" s="152"/>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="O6" s="152"/>
+      <c r="P6" s="152"/>
+      <c r="Q6" s="152"/>
+      <c r="R6" s="152"/>
+      <c r="S6" s="152"/>
+      <c r="T6" s="152"/>
+      <c r="U6" s="152"/>
+      <c r="V6" s="152"/>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="152"/>
+      <c r="S7" s="152"/>
+      <c r="T7" s="152"/>
+      <c r="U7" s="152"/>
+      <c r="V7" s="152"/>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="O8" s="152"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="152"/>
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+      <c r="U8" s="152"/>
+      <c r="V8" s="152"/>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="O9" s="152"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="152"/>
+      <c r="S9" s="152"/>
+      <c r="T9" s="152"/>
+      <c r="U9" s="152"/>
+      <c r="V9" s="152"/>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="O10" s="152"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="152"/>
+      <c r="R10" s="152"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="152"/>
+      <c r="U10" s="152"/>
+      <c r="V10" s="152"/>
+    </row>
+    <row r="13" spans="2:22" ht="18.75">
+      <c r="B13" s="87" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" s="87" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B14" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="159" t="s">
+        <v>240</v>
+      </c>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="159"/>
+    </row>
+    <row r="15" spans="2:22" ht="18.75">
+      <c r="B15" s="88" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" ht="18.75">
-      <c r="B15" s="93" t="s">
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="159"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="159"/>
+    </row>
+    <row r="16" spans="2:22" ht="18.75">
+      <c r="B16" s="88" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="2:2" ht="18.75">
-      <c r="B16" s="93" t="s">
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="159"/>
+    </row>
+    <row r="17" spans="2:15" ht="18.75">
+      <c r="B17" s="88" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="18.75">
-      <c r="B17" s="93" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="18.75">
-      <c r="B18" s="93" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="18.75">
-      <c r="B19" s="93" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="18.75">
-      <c r="B20" s="93"/>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="4.5" customHeight="1">
-      <c r="B23" s="48"/>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="157" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="157" t="s">
-        <v>222</v>
-      </c>
-      <c r="C25" s="23"/>
-    </row>
-    <row r="26" spans="2:3" ht="6.75" customHeight="1">
-      <c r="B26" s="158"/>
-      <c r="C26" s="23"/>
-    </row>
-    <row r="27" spans="2:3">
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="159"/>
+      <c r="M17" s="159"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="159"/>
+    </row>
+    <row r="18" spans="2:15" ht="18.75">
+      <c r="B18" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="159"/>
+      <c r="M18" s="159"/>
+      <c r="N18" s="159"/>
+      <c r="O18" s="159"/>
+    </row>
+    <row r="19" spans="2:15" ht="18.75">
+      <c r="B19" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="159"/>
+      <c r="M19" s="159"/>
+      <c r="N19" s="159"/>
+      <c r="O19" s="159"/>
+    </row>
+    <row r="20" spans="2:15" ht="18.75">
+      <c r="B20" s="88"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="159"/>
+      <c r="K20" s="159"/>
+      <c r="L20" s="159"/>
+      <c r="M20" s="159"/>
+      <c r="N20" s="159"/>
+      <c r="O20" s="159"/>
+    </row>
+    <row r="21" spans="2:15" ht="15" customHeight="1">
+      <c r="B21" s="88"/>
+    </row>
+    <row r="22" spans="2:15" ht="15" customHeight="1">
+      <c r="B22" s="154" t="s">
+        <v>235</v>
+      </c>
+      <c r="G22" s="154" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="15" customHeight="1">
+      <c r="B23" s="155" t="s">
+        <v>234</v>
+      </c>
+      <c r="G23" s="153" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="15" customHeight="1">
+      <c r="B24" s="158" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="158"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="158"/>
+      <c r="G24" s="153" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="15" customHeight="1"/>
+    <row r="26" spans="2:15" ht="15" customHeight="1">
+      <c r="B26" s="154" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" s="154" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="15" customHeight="1">
       <c r="B27" s="157" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="153" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="15" customHeight="1">
+      <c r="G28" s="153" t="s">
+        <v>229</v>
+      </c>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="2:15" ht="15" customHeight="1">
+      <c r="B29" s="180" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="180"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="153" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="48" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="157" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="157" t="s">
-        <v>227</v>
-      </c>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="180"/>
+      <c r="C30" s="180"/>
+      <c r="D30" s="180"/>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="2:15" ht="15" customHeight="1">
+      <c r="G31" s="156" t="s">
+        <v>236</v>
+      </c>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="156"/>
+      <c r="N31" s="156"/>
+      <c r="O31" s="156"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="156"/>
+      <c r="N32" s="156"/>
+      <c r="O32" s="156"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G31:O32"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G14:O20"/>
+    <mergeCell ref="B29:D30"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B14" location="'2. Population Flow'!A1" display="Population Flow" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B15" location="'3. Consistency checks'!A1" display="Consistency checks" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -23511,10 +23501,13 @@
     <hyperlink ref="B17" location="'5. Column derivations'!A1" display="Column derivations" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B18" location="'6. Visualizations'!A1" display="Visualizations" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="B19" location="'7. Recommendations'!A1" display="Recommendations" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B24" r:id="rId1" display="https://github.com/cj-gilbert/Instacart-Python" xr:uid="{7A4B05EB-320B-4FA4-A238-7B715FCB51CB}"/>
+    <hyperlink ref="B29" r:id="rId2" display="Questions?  Email me at  ms.cj.gilbert@gmail.com" xr:uid="{08B0F1E2-E6EB-4CA5-9E5E-B2774459837A}"/>
+    <hyperlink ref="B27" r:id="rId3" display="https://www.cjgilbert.net/portfolio/instacart-targeted-marketing" xr:uid="{08C5AD2F-89D5-4936-A422-A78A9C5383D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -23535,19 +23528,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="25:25" ht="15">
-      <c r="Y1" s="155" t="s">
-        <v>18</v>
+      <c r="Y1" s="150" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="25:25" ht="17.25">
-      <c r="Y2" s="15"/>
+      <c r="Y2" s="12"/>
     </row>
     <row r="6" spans="25:25" ht="8.4499999999999993" customHeight="1"/>
     <row r="23" spans="3:28" ht="15">
-      <c r="C23" s="25"/>
+      <c r="C23" s="22"/>
     </row>
     <row r="27" spans="3:28" ht="15">
-      <c r="AB27" s="25"/>
+      <c r="AB27" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -23569,94 +23562,94 @@
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
     <col min="5" max="5" width="60.42578125" customWidth="1"/>
     <col min="6" max="6" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="F1" s="155" t="s">
-        <v>18</v>
+      <c r="F1" s="150" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:6" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="D6" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="E6" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="98" t="s">
+    </row>
+    <row r="7" spans="2:6" ht="90.75" thickTop="1">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="90.75" thickTop="1">
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="30">
+      <c r="B8" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C8" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="30">
-      <c r="B8" s="63" t="s">
+      <c r="D8" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="47"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="8" t="s">
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C10" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>33</v>
+      <c r="E10" s="62" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B11" s="11"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickTop="1"/>
   </sheetData>
@@ -23664,13 +23657,14 @@
     <hyperlink ref="F1" location="'1. Title Page'!A1" display="Title page" xr:uid="{F684E663-3AC6-4DE3-A936-4B968F070690}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:H36"/>
+  <dimension ref="B1:H33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
@@ -23691,346 +23685,322 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="H1" s="155" t="s">
-        <v>18</v>
+      <c r="H1" s="150" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:8" ht="33" thickTop="1" thickBot="1">
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" thickTop="1">
+      <c r="B7" s="165" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="45" customHeight="1">
+      <c r="B8" s="166"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="166"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="163" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15" customHeight="1">
+      <c r="B10" s="166"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="160"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="166"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="160"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="166"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="160"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="166"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="160"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B14" s="167"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="164"/>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B15" s="168" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="65"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15" customHeight="1">
+      <c r="B16" s="169"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="68"/>
+      <c r="G16" s="172" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15" customHeight="1">
+      <c r="B17" s="169"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="68"/>
+      <c r="G17" s="172"/>
+    </row>
+    <row r="18" spans="2:7" ht="15" customHeight="1">
+      <c r="B18" s="169"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="68"/>
+      <c r="G18" s="172"/>
+    </row>
+    <row r="19" spans="2:7" ht="15" customHeight="1">
+      <c r="B19" s="169"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="68"/>
+      <c r="G19" s="173"/>
+    </row>
+    <row r="20" spans="2:7" ht="45.75" thickBot="1">
+      <c r="B20" s="170"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B21" s="165" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="171" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="166"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="160"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="166"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="160"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B24" s="167"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="46"/>
+      <c r="G24" s="164"/>
+    </row>
+    <row r="25" spans="2:7" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B25" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="96" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="97" t="s">
+      <c r="C25" s="76"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="98" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" thickTop="1">
-      <c r="B7" s="164" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="45" customHeight="1">
-      <c r="B8" s="165"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36" t="s">
+      <c r="G25" s="79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="45.75" thickTop="1">
+      <c r="B26" s="165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="166"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="G27" s="160" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="166"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="165"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="162" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1">
-      <c r="B10" s="165"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="159"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="165"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="159"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="165"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="159"/>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="165"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="159"/>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B14" s="166"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="163"/>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B15" s="167" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="71" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="15" customHeight="1">
-      <c r="B16" s="168"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="73"/>
-      <c r="G16" s="171" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1">
-      <c r="B17" s="168"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="73"/>
-      <c r="G17" s="171"/>
-    </row>
-    <row r="18" spans="2:7" ht="15" customHeight="1">
-      <c r="B18" s="168"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="171"/>
-    </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1">
-      <c r="B19" s="168"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="73"/>
-      <c r="G19" s="172"/>
-    </row>
-    <row r="20" spans="2:7" ht="45.75" thickBot="1">
-      <c r="B20" s="169"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B21" s="164" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="170" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="165"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="159"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="165"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="159"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B24" s="166"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="163"/>
-    </row>
-    <row r="25" spans="2:7" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B25" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="84" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="45.75" thickTop="1">
-      <c r="B26" s="164" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="165"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="159" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="165"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="25" t="s">
+      <c r="F28" s="35"/>
+      <c r="G28" s="161"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="166"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="160"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="165"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="160"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="161"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="165"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="25" t="s">
+      <c r="B30" s="166"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="57"/>
+      <c r="G30" s="161"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="166"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="62"/>
-      <c r="G30" s="160"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="165"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="25" t="s">
+      <c r="F31" s="57"/>
+      <c r="G31" s="161"/>
+    </row>
+    <row r="32" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B32" s="167"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="160"/>
-    </row>
-    <row r="32" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B32" s="166"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="161"/>
-    </row>
-    <row r="33" spans="2:7" ht="15.75" thickTop="1">
-      <c r="B33" s="2"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="2"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B35" s="4"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="2:7" ht="15.75" thickTop="1"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="162"/>
+    </row>
+    <row r="33" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G27:G32"/>
@@ -24070,468 +24040,468 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="F1" s="155" t="s">
-        <v>18</v>
+      <c r="F1" s="150" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:6" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B6" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="111" t="s">
+      <c r="B6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="111" t="s">
+      <c r="C6" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30.75" thickTop="1">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="30">
+      <c r="B8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30">
+      <c r="B9" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="45">
+      <c r="B10" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="45">
+      <c r="B11" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="45">
+      <c r="B12" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="60">
+      <c r="B13" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="45">
+      <c r="B15" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30">
+      <c r="B16" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="112" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="30.75" thickTop="1">
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="D16" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="56" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="30">
-      <c r="B8" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="30">
-      <c r="B9" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="9" t="s">
+    </row>
+    <row r="17" spans="2:5" ht="30">
+      <c r="B17" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="45">
+      <c r="B19" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="179.25" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="30">
+      <c r="B21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="27" t="s">
+      <c r="E22" s="52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="45">
-      <c r="B10" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="45">
-      <c r="B11" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="45">
-      <c r="B12" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="60">
-      <c r="B13" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="45">
-      <c r="B15" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="30">
-      <c r="B16" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="30">
-      <c r="B17" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="45">
-      <c r="B19" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="179.25" customHeight="1">
-      <c r="B20" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="30">
-      <c r="B21" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="27" t="s">
+      <c r="C23" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="30">
+      <c r="B25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="60">
+      <c r="B26" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="18" customHeight="1">
+      <c r="B29" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="83" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="30">
+      <c r="B30" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="30">
+      <c r="B31" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="82" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="57" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="E24" s="57" t="s">
+      <c r="E31" s="83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="52" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="30">
-      <c r="B25" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="28" t="s">
+    <row r="33" spans="2:5">
+      <c r="B33" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="30">
+      <c r="B34" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="83" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D25" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="57" t="s">
+      <c r="D36" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="52" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="60">
-      <c r="B26" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="57" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="57" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="18" customHeight="1">
-      <c r="B29" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="88" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="30">
-      <c r="B30" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" s="57" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="30">
-      <c r="B31" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="88" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="57" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="86" t="s">
+    <row r="37" spans="2:5">
+      <c r="B37" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="88" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="30">
-      <c r="B34" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34" s="57" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" s="86" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="E35" s="88" t="s">
+      <c r="C37" s="81" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="86" t="s">
+      <c r="D37" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="D37" s="87" t="s">
+      <c r="E37" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="E37" s="88" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="38" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="13"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="2:5" ht="15.75" thickTop="1"/>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F1" location="'1. Title Page'!A1" display="Title page" xr:uid="{294A7FE6-5CAA-4D68-B914-6489803F8D1B}"/>
   </hyperlinks>
@@ -24566,967 +24536,967 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22">
-      <c r="Q1" s="155" t="s">
-        <v>18</v>
+      <c r="Q1" s="150" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="19.5" thickBot="1">
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="109" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="81.75" customHeight="1" thickTop="1">
+      <c r="B7" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+    </row>
+    <row r="8" spans="2:22" ht="177.75" customHeight="1">
+      <c r="B8" s="112" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="30" customHeight="1" thickBot="1">
+      <c r="B9" s="84"/>
+    </row>
+    <row r="10" spans="2:22" ht="62.25" customHeight="1" thickTop="1">
+      <c r="B10" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+    </row>
+    <row r="11" spans="2:22" ht="213.75" customHeight="1">
+      <c r="B11" s="112" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="20.25" customHeight="1">
+      <c r="B12" s="111"/>
+    </row>
+    <row r="13" spans="2:22" ht="21.75" customHeight="1">
+      <c r="B13" s="174" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="21.75" customHeight="1">
+      <c r="B14" s="174"/>
+    </row>
+    <row r="15" spans="2:22" ht="21.75" customHeight="1">
+      <c r="B15" s="174"/>
+    </row>
+    <row r="16" spans="2:22" ht="21.75" customHeight="1">
+      <c r="B16" s="174"/>
+    </row>
+    <row r="17" spans="2:24" ht="21.75" customHeight="1">
+      <c r="B17" s="174"/>
+    </row>
+    <row r="18" spans="2:24" ht="21.75" customHeight="1">
+      <c r="B18" s="174"/>
+    </row>
+    <row r="19" spans="2:24" ht="21.75" customHeight="1">
+      <c r="B19" s="174"/>
+    </row>
+    <row r="20" spans="2:24" ht="21.75" customHeight="1">
+      <c r="B20" s="174"/>
+    </row>
+    <row r="21" spans="2:24" ht="21.75" customHeight="1">
+      <c r="B21" s="174"/>
+    </row>
+    <row r="22" spans="2:24" ht="21.75" customHeight="1">
+      <c r="B22" s="174"/>
+    </row>
+    <row r="23" spans="2:24" ht="21.75" customHeight="1">
+      <c r="B23" s="174"/>
+    </row>
+    <row r="24" spans="2:24" ht="21" customHeight="1">
+      <c r="B24" s="174"/>
+    </row>
+    <row r="25" spans="2:24" ht="26.25" customHeight="1">
+      <c r="B25" s="174"/>
+    </row>
+    <row r="26" spans="2:24" ht="30" customHeight="1" thickBot="1">
+      <c r="B26" s="84"/>
+    </row>
+    <row r="27" spans="2:24" ht="64.5" customHeight="1" thickTop="1">
+      <c r="B27" s="140" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="86"/>
+    </row>
+    <row r="28" spans="2:24" ht="140.25" customHeight="1">
+      <c r="B28" s="112" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="81.75" customHeight="1" thickTop="1">
-      <c r="B7" s="113" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-    </row>
-    <row r="8" spans="2:22" ht="177.75" customHeight="1">
-      <c r="B8" s="117" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="89"/>
-    </row>
-    <row r="10" spans="2:22" ht="62.25" customHeight="1" thickTop="1">
-      <c r="B10" s="113" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="91"/>
-    </row>
-    <row r="11" spans="2:22" ht="213.75" customHeight="1">
-      <c r="B11" s="117" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" ht="20.25" customHeight="1">
-      <c r="B12" s="116"/>
-    </row>
-    <row r="13" spans="2:22" ht="21.75" customHeight="1">
-      <c r="B13" s="173" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" ht="21.75" customHeight="1">
-      <c r="B14" s="173"/>
-    </row>
-    <row r="15" spans="2:22" ht="21.75" customHeight="1">
-      <c r="B15" s="173"/>
-    </row>
-    <row r="16" spans="2:22" ht="21.75" customHeight="1">
-      <c r="B16" s="173"/>
-    </row>
-    <row r="17" spans="2:24" ht="21.75" customHeight="1">
-      <c r="B17" s="173"/>
-    </row>
-    <row r="18" spans="2:24" ht="21.75" customHeight="1">
-      <c r="B18" s="173"/>
-    </row>
-    <row r="19" spans="2:24" ht="21.75" customHeight="1">
-      <c r="B19" s="173"/>
-    </row>
-    <row r="20" spans="2:24" ht="21.75" customHeight="1">
-      <c r="B20" s="173"/>
-    </row>
-    <row r="21" spans="2:24" ht="21.75" customHeight="1">
-      <c r="B21" s="173"/>
-    </row>
-    <row r="22" spans="2:24" ht="21.75" customHeight="1">
-      <c r="B22" s="173"/>
-    </row>
-    <row r="23" spans="2:24" ht="21.75" customHeight="1">
-      <c r="B23" s="173"/>
-    </row>
-    <row r="24" spans="2:24" ht="21" customHeight="1">
-      <c r="B24" s="173"/>
-    </row>
-    <row r="25" spans="2:24" ht="26.25" customHeight="1">
-      <c r="B25" s="173"/>
-    </row>
-    <row r="26" spans="2:24" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="89"/>
-    </row>
-    <row r="27" spans="2:24" ht="64.5" customHeight="1" thickTop="1">
-      <c r="B27" s="145" t="s">
+    <row r="29" spans="2:24" ht="122.25" customHeight="1">
+      <c r="B29" s="111" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" ht="56.25" customHeight="1">
+      <c r="B30" s="111"/>
+    </row>
+    <row r="31" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B31" s="84"/>
+    </row>
+    <row r="32" spans="2:24" ht="62.25" customHeight="1" thickTop="1">
+      <c r="B32" s="140" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91"/>
-      <c r="S27" s="91"/>
-      <c r="T27" s="91"/>
-      <c r="U27" s="91"/>
-      <c r="V27" s="91"/>
-    </row>
-    <row r="28" spans="2:24" ht="140.25" customHeight="1">
-      <c r="B28" s="117" t="s">
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="86"/>
+      <c r="R32" s="86"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="86"/>
+      <c r="V32" s="86"/>
+      <c r="X32" s="95"/>
+    </row>
+    <row r="33" spans="2:24" ht="16.5" customHeight="1">
+      <c r="B33" s="174" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" s="102" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="103" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="29" spans="2:24" ht="122.25" customHeight="1">
-      <c r="B29" s="116" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" ht="56.25" customHeight="1">
-      <c r="B30" s="116"/>
-    </row>
-    <row r="31" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B31" s="89"/>
-    </row>
-    <row r="32" spans="2:24" ht="62.25" customHeight="1" thickTop="1">
-      <c r="B32" s="145" t="s">
-        <v>197</v>
-      </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="91"/>
-      <c r="S32" s="91"/>
-      <c r="T32" s="91"/>
-      <c r="U32" s="91"/>
-      <c r="V32" s="91"/>
-      <c r="X32" s="100"/>
-    </row>
-    <row r="33" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B33" s="173" t="s">
-        <v>171</v>
-      </c>
-      <c r="E33" s="107" t="s">
+      <c r="G33" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="F33" s="108" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="X33" s="100"/>
+      <c r="X33" s="95"/>
     </row>
     <row r="34" spans="2:24" ht="18">
-      <c r="B34" s="173"/>
-      <c r="E34" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="F34" s="103">
+      <c r="B34" s="174"/>
+      <c r="E34" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="98">
         <v>75660936</v>
       </c>
-      <c r="G34" s="104">
+      <c r="G34" s="99">
         <f>F34/252418380</f>
         <v>0.29974416284582761</v>
       </c>
-      <c r="X34" s="100"/>
+      <c r="X34" s="95"/>
     </row>
     <row r="35" spans="2:24" ht="15.75">
-      <c r="B35" s="173"/>
-      <c r="E35" s="131" t="s">
-        <v>169</v>
-      </c>
-      <c r="F35" s="132">
+      <c r="B35" s="174"/>
+      <c r="E35" s="126" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="127">
         <v>44954496</v>
       </c>
-      <c r="G35" s="133">
+      <c r="G35" s="128">
         <f t="shared" ref="G35:G43" si="0">F35/252418380</f>
         <v>0.17809517674584552</v>
       </c>
-      <c r="X35" s="100"/>
+      <c r="X35" s="95"/>
     </row>
     <row r="36" spans="2:24" ht="15.75">
-      <c r="B36" s="173"/>
-      <c r="E36" s="134" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" s="135">
+      <c r="B36" s="174"/>
+      <c r="E36" s="129" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="130">
         <v>20646084</v>
       </c>
-      <c r="G36" s="136">
+      <c r="G36" s="131">
         <f t="shared" si="0"/>
         <v>8.1793108726868458E-2</v>
       </c>
-      <c r="X36" s="100"/>
+      <c r="X36" s="95"/>
     </row>
     <row r="37" spans="2:24" ht="15.75">
-      <c r="B37" s="173"/>
-      <c r="E37" s="131" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37" s="132">
+      <c r="B37" s="174"/>
+      <c r="E37" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="127">
         <v>17289206</v>
       </c>
-      <c r="G37" s="133">
+      <c r="G37" s="128">
         <f t="shared" si="0"/>
         <v>6.8494243564989205E-2</v>
       </c>
-      <c r="X37" s="100"/>
+      <c r="X37" s="95"/>
     </row>
     <row r="38" spans="2:24" ht="15.75">
-      <c r="B38" s="173"/>
-      <c r="E38" s="134" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" s="135">
+      <c r="B38" s="174"/>
+      <c r="E38" s="129" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="130">
         <v>15020661</v>
       </c>
-      <c r="G38" s="136">
+      <c r="G38" s="131">
         <f t="shared" si="0"/>
         <v>5.9507001827679901E-2</v>
       </c>
-      <c r="X38" s="100"/>
+      <c r="X38" s="95"/>
     </row>
     <row r="39" spans="2:24" ht="15.75">
-      <c r="B39" s="173"/>
-      <c r="E39" s="131" t="s">
-        <v>113</v>
-      </c>
-      <c r="F39" s="132">
+      <c r="B39" s="174"/>
+      <c r="E39" s="126" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="127">
         <v>12345538</v>
       </c>
-      <c r="G39" s="133">
+      <c r="G39" s="128">
         <f t="shared" si="0"/>
         <v>4.8909029524712107E-2</v>
       </c>
-      <c r="X39" s="100"/>
+      <c r="X39" s="95"/>
     </row>
     <row r="40" spans="2:24" ht="15.75">
-      <c r="B40" s="173"/>
-      <c r="E40" s="134" t="s">
-        <v>170</v>
-      </c>
-      <c r="F40" s="135">
+      <c r="B40" s="174"/>
+      <c r="E40" s="129" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="130">
         <v>11551570</v>
       </c>
-      <c r="G40" s="136">
+      <c r="G40" s="131">
         <f t="shared" si="0"/>
         <v>4.5763585044797453E-2</v>
       </c>
-      <c r="X40" s="100"/>
+      <c r="X40" s="95"/>
     </row>
     <row r="41" spans="2:24" ht="15.75">
-      <c r="B41" s="173"/>
-      <c r="E41" s="131" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="132">
+      <c r="B41" s="174"/>
+      <c r="E41" s="126" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="127">
         <v>9208026</v>
       </c>
-      <c r="G41" s="133">
+      <c r="G41" s="128">
         <f t="shared" si="0"/>
         <v>3.647922152103187E-2</v>
       </c>
-      <c r="X41" s="100"/>
+      <c r="X41" s="95"/>
     </row>
     <row r="42" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B42" s="173" t="s">
-        <v>166</v>
-      </c>
-      <c r="E42" s="134" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" s="135">
+      <c r="B42" s="174" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="130">
         <v>8177352</v>
       </c>
-      <c r="G42" s="136">
+      <c r="G42" s="131">
         <f t="shared" si="0"/>
         <v>3.2396024409949861E-2</v>
       </c>
-      <c r="X42" s="100"/>
+      <c r="X42" s="95"/>
     </row>
     <row r="43" spans="2:24" ht="19.5" customHeight="1">
-      <c r="B43" s="173"/>
-      <c r="E43" s="137" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="138">
+      <c r="B43" s="174"/>
+      <c r="E43" s="132" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="133">
         <v>8053132</v>
       </c>
-      <c r="G43" s="139">
+      <c r="G43" s="134">
         <f t="shared" si="0"/>
         <v>3.1903904937508908E-2</v>
       </c>
-      <c r="X43" s="100"/>
+      <c r="X43" s="95"/>
     </row>
     <row r="44" spans="2:24" ht="33" customHeight="1">
-      <c r="B44" s="174" t="s">
-        <v>167</v>
-      </c>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="X44" s="100"/>
+      <c r="B44" s="175" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="X44" s="95"/>
     </row>
     <row r="45" spans="2:24">
-      <c r="B45" s="174"/>
-      <c r="X45" s="100"/>
+      <c r="B45" s="175"/>
+      <c r="X45" s="95"/>
     </row>
     <row r="46" spans="2:24">
-      <c r="B46" s="174"/>
-      <c r="X46" s="100"/>
+      <c r="B46" s="175"/>
+      <c r="X46" s="95"/>
     </row>
     <row r="47" spans="2:24">
-      <c r="B47" s="174"/>
-      <c r="X47" s="100"/>
+      <c r="B47" s="175"/>
+      <c r="X47" s="95"/>
     </row>
     <row r="48" spans="2:24" ht="134.25" customHeight="1">
-      <c r="B48" s="116" t="s">
+      <c r="B48" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="X48" s="96"/>
+    </row>
+    <row r="49" spans="2:22" ht="30" customHeight="1" thickBot="1">
+      <c r="B49" s="84"/>
+    </row>
+    <row r="50" spans="2:22" ht="158.25" customHeight="1" thickTop="1">
+      <c r="B50" s="108" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="86"/>
+      <c r="L50" s="86"/>
+      <c r="M50" s="86"/>
+      <c r="N50" s="86"/>
+      <c r="O50" s="86"/>
+      <c r="P50" s="86"/>
+      <c r="Q50" s="86"/>
+      <c r="R50" s="86"/>
+      <c r="S50" s="86"/>
+      <c r="T50" s="86"/>
+      <c r="U50" s="86"/>
+      <c r="V50" s="86"/>
+    </row>
+    <row r="51" spans="2:22" ht="250.5" customHeight="1">
+      <c r="B51" s="111" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" ht="23.25" customHeight="1" thickBot="1">
+      <c r="B52" s="84"/>
+    </row>
+    <row r="53" spans="2:22" ht="38.25" thickTop="1">
+      <c r="B53" s="110" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="86"/>
+      <c r="L53" s="86"/>
+      <c r="M53" s="86"/>
+      <c r="N53" s="86"/>
+      <c r="O53" s="86"/>
+      <c r="P53" s="86"/>
+      <c r="Q53" s="86"/>
+      <c r="R53" s="86"/>
+      <c r="S53" s="86"/>
+      <c r="T53" s="86"/>
+      <c r="U53" s="86"/>
+      <c r="V53" s="86"/>
+    </row>
+    <row r="54" spans="2:22">
+      <c r="B54" s="84"/>
+    </row>
+    <row r="55" spans="2:22" ht="23.25" customHeight="1">
+      <c r="B55" s="174" t="s">
         <v>184</v>
       </c>
-      <c r="X48" s="101"/>
-    </row>
-    <row r="49" spans="2:22" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="89"/>
-    </row>
-    <row r="50" spans="2:22" ht="158.25" customHeight="1" thickTop="1">
-      <c r="B50" s="113" t="s">
-        <v>173</v>
-      </c>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="91"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="91"/>
-      <c r="J50" s="91"/>
-      <c r="K50" s="91"/>
-      <c r="L50" s="91"/>
-      <c r="M50" s="91"/>
-      <c r="N50" s="91"/>
-      <c r="O50" s="91"/>
-      <c r="P50" s="91"/>
-      <c r="Q50" s="91"/>
-      <c r="R50" s="91"/>
-      <c r="S50" s="91"/>
-      <c r="T50" s="91"/>
-      <c r="U50" s="91"/>
-      <c r="V50" s="91"/>
-    </row>
-    <row r="51" spans="2:22" ht="250.5" customHeight="1">
-      <c r="B51" s="116" t="s">
+    </row>
+    <row r="56" spans="2:22" ht="23.25" customHeight="1">
+      <c r="B56" s="174"/>
+    </row>
+    <row r="57" spans="2:22" ht="23.25" customHeight="1">
+      <c r="B57" s="174"/>
+    </row>
+    <row r="58" spans="2:22" ht="23.25" customHeight="1">
+      <c r="B58" s="174"/>
+    </row>
+    <row r="59" spans="2:22" ht="23.25" customHeight="1">
+      <c r="B59" s="174"/>
+    </row>
+    <row r="60" spans="2:22" ht="23.25" customHeight="1">
+      <c r="B60" s="174"/>
+    </row>
+    <row r="61" spans="2:22" ht="23.25" customHeight="1">
+      <c r="B61" s="174"/>
+    </row>
+    <row r="62" spans="2:22" ht="23.25" customHeight="1">
+      <c r="B62" s="174"/>
+    </row>
+    <row r="63" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B63" s="174"/>
+    </row>
+    <row r="64" spans="2:22" ht="19.5" customHeight="1">
+      <c r="B64" s="174"/>
+    </row>
+    <row r="65" spans="2:22" ht="23.25" customHeight="1">
+      <c r="B65" s="175" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" ht="23.25" customHeight="1">
+      <c r="B66" s="175"/>
+    </row>
+    <row r="67" spans="2:22" ht="23.25" customHeight="1">
+      <c r="B67" s="175"/>
+    </row>
+    <row r="68" spans="2:22" ht="23.25" customHeight="1">
+      <c r="B68" s="175"/>
+      <c r="E68" s="113"/>
+      <c r="F68" s="176" t="s">
+        <v>180</v>
+      </c>
+      <c r="G68" s="177"/>
+      <c r="S68" s="53"/>
+    </row>
+    <row r="69" spans="2:22" ht="23.25" customHeight="1">
+      <c r="B69" s="175"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="118" t="s">
+        <v>181</v>
+      </c>
+      <c r="G69" s="119" t="s">
+        <v>182</v>
+      </c>
+      <c r="L69" s="54"/>
+      <c r="Q69" s="85"/>
+      <c r="R69" s="100"/>
+      <c r="S69" s="85"/>
+    </row>
+    <row r="70" spans="2:22" ht="25.5" customHeight="1">
+      <c r="B70" s="175"/>
+      <c r="E70" s="115" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="52" spans="2:22" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B52" s="89"/>
-    </row>
-    <row r="53" spans="2:22" ht="38.25" thickTop="1">
-      <c r="B53" s="115" t="s">
-        <v>172</v>
-      </c>
-      <c r="C53" s="91"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="91"/>
-      <c r="J53" s="91"/>
-      <c r="K53" s="91"/>
-      <c r="L53" s="91"/>
-      <c r="M53" s="91"/>
-      <c r="N53" s="91"/>
-      <c r="O53" s="91"/>
-      <c r="P53" s="91"/>
-      <c r="Q53" s="91"/>
-      <c r="R53" s="91"/>
-      <c r="S53" s="91"/>
-      <c r="T53" s="91"/>
-      <c r="U53" s="91"/>
-      <c r="V53" s="91"/>
-    </row>
-    <row r="54" spans="2:22">
-      <c r="B54" s="89"/>
-    </row>
-    <row r="55" spans="2:22" ht="23.25" customHeight="1">
-      <c r="B55" s="173" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="56" spans="2:22" ht="23.25" customHeight="1">
-      <c r="B56" s="173"/>
-    </row>
-    <row r="57" spans="2:22" ht="23.25" customHeight="1">
-      <c r="B57" s="173"/>
-    </row>
-    <row r="58" spans="2:22" ht="23.25" customHeight="1">
-      <c r="B58" s="173"/>
-    </row>
-    <row r="59" spans="2:22" ht="23.25" customHeight="1">
-      <c r="B59" s="173"/>
-    </row>
-    <row r="60" spans="2:22" ht="23.25" customHeight="1">
-      <c r="B60" s="173"/>
-    </row>
-    <row r="61" spans="2:22" ht="23.25" customHeight="1">
-      <c r="B61" s="173"/>
-    </row>
-    <row r="62" spans="2:22" ht="23.25" customHeight="1">
-      <c r="B62" s="173"/>
-    </row>
-    <row r="63" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B63" s="173"/>
-    </row>
-    <row r="64" spans="2:22" ht="19.5" customHeight="1">
-      <c r="B64" s="173"/>
-    </row>
-    <row r="65" spans="2:22" ht="23.25" customHeight="1">
-      <c r="B65" s="174" t="s">
+      <c r="F70" s="123">
+        <v>78.02</v>
+      </c>
+      <c r="G70" s="120">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="Q70" s="85"/>
+      <c r="R70" s="100"/>
+      <c r="S70" s="85"/>
+    </row>
+    <row r="71" spans="2:22" ht="25.5" customHeight="1">
+      <c r="B71" s="175"/>
+      <c r="E71" s="116" t="s">
+        <v>176</v>
+      </c>
+      <c r="F71" s="124">
+        <v>79.7</v>
+      </c>
+      <c r="G71" s="121">
+        <v>10.23</v>
+      </c>
+      <c r="Q71" s="85"/>
+      <c r="R71" s="100"/>
+      <c r="S71" s="85"/>
+    </row>
+    <row r="72" spans="2:22" ht="25.5" customHeight="1">
+      <c r="B72" s="175"/>
+      <c r="E72" s="117" t="s">
+        <v>175</v>
+      </c>
+      <c r="F72" s="125">
+        <v>76.44</v>
+      </c>
+      <c r="G72" s="122">
+        <v>9.81</v>
+      </c>
+      <c r="Q72" s="85"/>
+      <c r="R72" s="100"/>
+      <c r="S72" s="85"/>
+    </row>
+    <row r="73" spans="2:22" ht="23.25" customHeight="1">
+      <c r="B73" s="175"/>
+      <c r="Q73" s="85"/>
+      <c r="R73" s="85"/>
+      <c r="S73" s="85"/>
+    </row>
+    <row r="74" spans="2:22" ht="23.25" customHeight="1">
+      <c r="B74" s="175"/>
+    </row>
+    <row r="75" spans="2:22" ht="23.25" customHeight="1">
+      <c r="B75" s="111"/>
+    </row>
+    <row r="76" spans="2:22" ht="23.25" customHeight="1" thickBot="1">
+      <c r="B76" s="84"/>
+    </row>
+    <row r="77" spans="2:22" ht="38.25" thickTop="1">
+      <c r="B77" s="110" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" s="86"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="86"/>
+      <c r="G77" s="86"/>
+      <c r="H77" s="86"/>
+      <c r="I77" s="86"/>
+      <c r="J77" s="86"/>
+      <c r="K77" s="86"/>
+      <c r="L77" s="86"/>
+      <c r="M77" s="86"/>
+      <c r="N77" s="86"/>
+      <c r="O77" s="86"/>
+      <c r="P77" s="86"/>
+      <c r="Q77" s="86"/>
+      <c r="R77" s="86"/>
+      <c r="S77" s="86"/>
+      <c r="T77" s="86"/>
+      <c r="U77" s="86"/>
+      <c r="V77" s="86"/>
+    </row>
+    <row r="78" spans="2:22" ht="23.25" customHeight="1">
+      <c r="B78" s="137" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" ht="23.25" customHeight="1">
+      <c r="B79" s="138" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22" ht="23.25" customHeight="1">
+      <c r="B80" s="139" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" ht="23.25" customHeight="1">
+      <c r="B81" s="174" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23" ht="23.25" customHeight="1">
+      <c r="B82" s="174"/>
+    </row>
+    <row r="83" spans="2:23" ht="23.25" customHeight="1">
+      <c r="B83" s="174"/>
+    </row>
+    <row r="84" spans="2:23" ht="23.25" customHeight="1">
+      <c r="B84" s="174"/>
+      <c r="W84" s="84"/>
+    </row>
+    <row r="85" spans="2:23" ht="23.25" customHeight="1">
+      <c r="B85" s="174"/>
+      <c r="W85" s="84"/>
+    </row>
+    <row r="86" spans="2:23" ht="23.25" customHeight="1">
+      <c r="B86" s="174"/>
+      <c r="W86" s="84"/>
+    </row>
+    <row r="87" spans="2:23" ht="23.25" customHeight="1">
+      <c r="B87" s="174"/>
+      <c r="W87" s="84"/>
+    </row>
+    <row r="88" spans="2:23" ht="40.5" customHeight="1">
+      <c r="B88" s="174"/>
+    </row>
+    <row r="89" spans="2:23" ht="23.25" customHeight="1">
+      <c r="B89" s="174"/>
+    </row>
+    <row r="90" spans="2:23" ht="31.5" customHeight="1">
+      <c r="B90" s="174"/>
+    </row>
+    <row r="91" spans="2:23" ht="30" customHeight="1" thickBot="1">
+      <c r="B91" s="84"/>
+    </row>
+    <row r="92" spans="2:23" ht="65.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B92" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" s="86"/>
+      <c r="D92" s="86"/>
+      <c r="E92" s="86"/>
+      <c r="F92" s="86"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="86"/>
+      <c r="I92" s="86"/>
+      <c r="J92" s="86"/>
+      <c r="K92" s="86"/>
+      <c r="L92" s="86"/>
+      <c r="M92" s="86"/>
+      <c r="N92" s="86"/>
+      <c r="O92" s="86"/>
+      <c r="P92" s="86"/>
+      <c r="Q92" s="86"/>
+      <c r="R92" s="86"/>
+      <c r="S92" s="86"/>
+      <c r="T92" s="86"/>
+      <c r="U92" s="86"/>
+      <c r="V92" s="86"/>
+    </row>
+    <row r="93" spans="2:23" ht="65.25" customHeight="1" thickTop="1">
+      <c r="B93" s="108" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23" ht="86.25" customHeight="1">
+      <c r="B94" s="111" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="2:23" ht="63">
+      <c r="B95" s="135" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="2:22" ht="23.25" customHeight="1">
-      <c r="B66" s="174"/>
-    </row>
-    <row r="67" spans="2:22" ht="23.25" customHeight="1">
-      <c r="B67" s="174"/>
-    </row>
-    <row r="68" spans="2:22" ht="23.25" customHeight="1">
-      <c r="B68" s="174"/>
-      <c r="E68" s="118"/>
-      <c r="F68" s="175" t="s">
-        <v>181</v>
-      </c>
-      <c r="G68" s="176"/>
-      <c r="S68" s="58"/>
-    </row>
-    <row r="69" spans="2:22" ht="23.25" customHeight="1">
-      <c r="B69" s="174"/>
-      <c r="E69" s="119"/>
-      <c r="F69" s="123" t="s">
-        <v>182</v>
-      </c>
-      <c r="G69" s="124" t="s">
-        <v>183</v>
-      </c>
-      <c r="L69" s="59"/>
-      <c r="Q69" s="90"/>
-      <c r="R69" s="105"/>
-      <c r="S69" s="90"/>
-    </row>
-    <row r="70" spans="2:22" ht="25.5" customHeight="1">
-      <c r="B70" s="174"/>
-      <c r="E70" s="120" t="s">
-        <v>175</v>
-      </c>
-      <c r="F70" s="128">
-        <v>78.02</v>
-      </c>
-      <c r="G70" s="125">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="Q70" s="90"/>
-      <c r="R70" s="105"/>
-      <c r="S70" s="90"/>
-    </row>
-    <row r="71" spans="2:22" ht="25.5" customHeight="1">
-      <c r="B71" s="174"/>
-      <c r="E71" s="121" t="s">
-        <v>177</v>
-      </c>
-      <c r="F71" s="129">
-        <v>79.7</v>
-      </c>
-      <c r="G71" s="126">
-        <v>10.23</v>
-      </c>
-      <c r="Q71" s="90"/>
-      <c r="R71" s="105"/>
-      <c r="S71" s="90"/>
-    </row>
-    <row r="72" spans="2:22" ht="25.5" customHeight="1">
-      <c r="B72" s="174"/>
-      <c r="E72" s="122" t="s">
-        <v>176</v>
-      </c>
-      <c r="F72" s="130">
-        <v>76.44</v>
-      </c>
-      <c r="G72" s="127">
-        <v>9.81</v>
-      </c>
-      <c r="Q72" s="90"/>
-      <c r="R72" s="105"/>
-      <c r="S72" s="90"/>
-    </row>
-    <row r="73" spans="2:22" ht="23.25" customHeight="1">
-      <c r="B73" s="174"/>
-      <c r="Q73" s="90"/>
-      <c r="R73" s="90"/>
-      <c r="S73" s="90"/>
-    </row>
-    <row r="74" spans="2:22" ht="23.25" customHeight="1">
-      <c r="B74" s="174"/>
-    </row>
-    <row r="75" spans="2:22" ht="23.25" customHeight="1">
-      <c r="B75" s="116"/>
-    </row>
-    <row r="76" spans="2:22" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B76" s="89"/>
-    </row>
-    <row r="77" spans="2:22" ht="38.25" thickTop="1">
-      <c r="B77" s="115" t="s">
-        <v>192</v>
-      </c>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="91"/>
-      <c r="F77" s="91"/>
-      <c r="G77" s="91"/>
-      <c r="H77" s="91"/>
-      <c r="I77" s="91"/>
-      <c r="J77" s="91"/>
-      <c r="K77" s="91"/>
-      <c r="L77" s="91"/>
-      <c r="M77" s="91"/>
-      <c r="N77" s="91"/>
-      <c r="O77" s="91"/>
-      <c r="P77" s="91"/>
-      <c r="Q77" s="91"/>
-      <c r="R77" s="91"/>
-      <c r="S77" s="91"/>
-      <c r="T77" s="91"/>
-      <c r="U77" s="91"/>
-      <c r="V77" s="91"/>
-    </row>
-    <row r="78" spans="2:22" ht="23.25" customHeight="1">
-      <c r="B78" s="142" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="79" spans="2:22" ht="23.25" customHeight="1">
-      <c r="B79" s="143" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="80" spans="2:22" ht="23.25" customHeight="1">
-      <c r="B80" s="144" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="81" spans="2:23" ht="23.25" customHeight="1">
-      <c r="B81" s="173" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="82" spans="2:23" ht="23.25" customHeight="1">
-      <c r="B82" s="173"/>
-    </row>
-    <row r="83" spans="2:23" ht="23.25" customHeight="1">
-      <c r="B83" s="173"/>
-    </row>
-    <row r="84" spans="2:23" ht="23.25" customHeight="1">
-      <c r="B84" s="173"/>
-      <c r="W84" s="89"/>
-    </row>
-    <row r="85" spans="2:23" ht="23.25" customHeight="1">
-      <c r="B85" s="173"/>
-      <c r="W85" s="89"/>
-    </row>
-    <row r="86" spans="2:23" ht="23.25" customHeight="1">
-      <c r="B86" s="173"/>
-      <c r="W86" s="89"/>
-    </row>
-    <row r="87" spans="2:23" ht="23.25" customHeight="1">
-      <c r="B87" s="173"/>
-      <c r="W87" s="89"/>
-    </row>
-    <row r="88" spans="2:23" ht="40.5" customHeight="1">
-      <c r="B88" s="173"/>
-    </row>
-    <row r="89" spans="2:23" ht="23.25" customHeight="1">
-      <c r="B89" s="173"/>
-    </row>
-    <row r="90" spans="2:23" ht="31.5" customHeight="1">
-      <c r="B90" s="173"/>
-    </row>
-    <row r="91" spans="2:23" ht="30" customHeight="1" thickBot="1">
-      <c r="B91" s="89"/>
-    </row>
-    <row r="92" spans="2:23" ht="65.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B92" s="115" t="s">
-        <v>190</v>
-      </c>
-      <c r="C92" s="91"/>
-      <c r="D92" s="91"/>
-      <c r="E92" s="91"/>
-      <c r="F92" s="91"/>
-      <c r="G92" s="91"/>
-      <c r="H92" s="91"/>
-      <c r="I92" s="91"/>
-      <c r="J92" s="91"/>
-      <c r="K92" s="91"/>
-      <c r="L92" s="91"/>
-      <c r="M92" s="91"/>
-      <c r="N92" s="91"/>
-      <c r="O92" s="91"/>
-      <c r="P92" s="91"/>
-      <c r="Q92" s="91"/>
-      <c r="R92" s="91"/>
-      <c r="S92" s="91"/>
-      <c r="T92" s="91"/>
-      <c r="U92" s="91"/>
-      <c r="V92" s="91"/>
-    </row>
-    <row r="93" spans="2:23" ht="65.25" customHeight="1" thickTop="1">
-      <c r="B93" s="113" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="94" spans="2:23" ht="86.25" customHeight="1">
-      <c r="B94" s="116" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="95" spans="2:23" ht="63">
-      <c r="B95" s="140" t="s">
+    <row r="96" spans="2:23" ht="15.75">
+      <c r="B96" s="135"/>
+    </row>
+    <row r="97" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B97" s="178" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="2:23" ht="15.75">
-      <c r="B96" s="140"/>
-    </row>
-    <row r="97" spans="2:22" ht="15.75" customHeight="1">
-      <c r="B97" s="177" t="s">
-        <v>188</v>
-      </c>
-    </row>
     <row r="98" spans="2:22" ht="15.75" customHeight="1">
-      <c r="B98" s="177"/>
+      <c r="B98" s="178"/>
     </row>
     <row r="99" spans="2:22" ht="15.75" customHeight="1">
-      <c r="B99" s="177"/>
+      <c r="B99" s="178"/>
     </row>
     <row r="100" spans="2:22" ht="15.75" customHeight="1">
-      <c r="B100" s="177"/>
+      <c r="B100" s="178"/>
     </row>
     <row r="101" spans="2:22" ht="15.75" customHeight="1">
-      <c r="B101" s="177"/>
+      <c r="B101" s="178"/>
     </row>
     <row r="102" spans="2:22" ht="15.75" customHeight="1">
-      <c r="B102" s="177"/>
+      <c r="B102" s="178"/>
     </row>
     <row r="103" spans="2:22" ht="15.75" customHeight="1">
-      <c r="B103" s="177"/>
+      <c r="B103" s="178"/>
     </row>
     <row r="104" spans="2:22" ht="15.75" customHeight="1">
-      <c r="B104" s="177"/>
+      <c r="B104" s="178"/>
     </row>
     <row r="105" spans="2:22" ht="15.75" customHeight="1">
-      <c r="B105" s="177"/>
+      <c r="B105" s="178"/>
     </row>
     <row r="106" spans="2:22" ht="15.75" customHeight="1">
-      <c r="B106" s="177"/>
+      <c r="B106" s="178"/>
     </row>
     <row r="107" spans="2:22" ht="15.75" customHeight="1">
-      <c r="B107" s="177"/>
+      <c r="B107" s="178"/>
     </row>
     <row r="108" spans="2:22" ht="16.5" thickBot="1">
-      <c r="B108" s="116"/>
+      <c r="B108" s="111"/>
     </row>
     <row r="109" spans="2:22" ht="63.75" thickTop="1">
-      <c r="B109" s="141" t="s">
+      <c r="B109" s="136" t="s">
+        <v>197</v>
+      </c>
+      <c r="C109" s="86"/>
+      <c r="D109" s="86"/>
+      <c r="E109" s="86"/>
+      <c r="F109" s="86"/>
+      <c r="G109" s="86"/>
+      <c r="H109" s="86"/>
+      <c r="I109" s="86"/>
+      <c r="J109" s="86"/>
+      <c r="K109" s="86"/>
+      <c r="L109" s="86"/>
+      <c r="M109" s="86"/>
+      <c r="N109" s="86"/>
+      <c r="O109" s="86"/>
+      <c r="P109" s="86"/>
+      <c r="Q109" s="86"/>
+      <c r="R109" s="86"/>
+      <c r="S109" s="86"/>
+      <c r="T109" s="86"/>
+      <c r="U109" s="86"/>
+      <c r="V109" s="86"/>
+    </row>
+    <row r="110" spans="2:22" ht="29.25" customHeight="1">
+      <c r="B110" s="174" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="2:22" ht="29.25" customHeight="1">
+      <c r="B111" s="174"/>
+    </row>
+    <row r="112" spans="2:22" ht="29.25" customHeight="1">
+      <c r="B112" s="174"/>
+    </row>
+    <row r="113" spans="2:2" ht="29.25" customHeight="1">
+      <c r="B113" s="174"/>
+    </row>
+    <row r="114" spans="2:2" ht="29.25" customHeight="1">
+      <c r="B114" s="174"/>
+    </row>
+    <row r="115" spans="2:2" ht="29.25" customHeight="1">
+      <c r="B115" s="174"/>
+    </row>
+    <row r="116" spans="2:2" ht="29.25" customHeight="1">
+      <c r="B116" s="174"/>
+    </row>
+    <row r="117" spans="2:2" ht="29.25" customHeight="1">
+      <c r="B117" s="174"/>
+    </row>
+    <row r="118" spans="2:2" ht="29.25" customHeight="1">
+      <c r="B118" s="174"/>
+    </row>
+    <row r="119" spans="2:2" ht="13.5" customHeight="1">
+      <c r="B119" s="174"/>
+    </row>
+    <row r="120" spans="2:2" ht="29.25" customHeight="1">
+      <c r="B120" s="175" t="s">
         <v>198</v>
       </c>
-      <c r="C109" s="91"/>
-      <c r="D109" s="91"/>
-      <c r="E109" s="91"/>
-      <c r="F109" s="91"/>
-      <c r="G109" s="91"/>
-      <c r="H109" s="91"/>
-      <c r="I109" s="91"/>
-      <c r="J109" s="91"/>
-      <c r="K109" s="91"/>
-      <c r="L109" s="91"/>
-      <c r="M109" s="91"/>
-      <c r="N109" s="91"/>
-      <c r="O109" s="91"/>
-      <c r="P109" s="91"/>
-      <c r="Q109" s="91"/>
-      <c r="R109" s="91"/>
-      <c r="S109" s="91"/>
-      <c r="T109" s="91"/>
-      <c r="U109" s="91"/>
-      <c r="V109" s="91"/>
-    </row>
-    <row r="110" spans="2:22" ht="29.25" customHeight="1">
-      <c r="B110" s="173" t="s">
+    </row>
+    <row r="121" spans="2:2" ht="29.25" customHeight="1">
+      <c r="B121" s="175"/>
+    </row>
+    <row r="122" spans="2:2" ht="29.25" customHeight="1">
+      <c r="B122" s="175"/>
+    </row>
+    <row r="123" spans="2:2" ht="29.25" customHeight="1">
+      <c r="B123" s="175"/>
+    </row>
+    <row r="124" spans="2:2" ht="29.25" customHeight="1">
+      <c r="B124" s="175"/>
+    </row>
+    <row r="125" spans="2:2" ht="29.25" customHeight="1">
+      <c r="B125" s="174" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" ht="29.25" customHeight="1">
+      <c r="B126" s="174"/>
+    </row>
+    <row r="127" spans="2:2" ht="29.25" customHeight="1">
+      <c r="B127" s="174"/>
+    </row>
+    <row r="128" spans="2:2" ht="29.25" customHeight="1">
+      <c r="B128" s="111"/>
+    </row>
+    <row r="129" spans="2:22" ht="29.25" customHeight="1">
+      <c r="B129" s="111"/>
+    </row>
+    <row r="130" spans="2:22" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B130" s="84"/>
+    </row>
+    <row r="131" spans="2:22" ht="38.25" thickTop="1">
+      <c r="B131" s="141" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="111" spans="2:22" ht="29.25" customHeight="1">
-      <c r="B111" s="173"/>
-    </row>
-    <row r="112" spans="2:22" ht="29.25" customHeight="1">
-      <c r="B112" s="173"/>
-    </row>
-    <row r="113" spans="2:2" ht="29.25" customHeight="1">
-      <c r="B113" s="173"/>
-    </row>
-    <row r="114" spans="2:2" ht="29.25" customHeight="1">
-      <c r="B114" s="173"/>
-    </row>
-    <row r="115" spans="2:2" ht="29.25" customHeight="1">
-      <c r="B115" s="173"/>
-    </row>
-    <row r="116" spans="2:2" ht="29.25" customHeight="1">
-      <c r="B116" s="173"/>
-    </row>
-    <row r="117" spans="2:2" ht="29.25" customHeight="1">
-      <c r="B117" s="173"/>
-    </row>
-    <row r="118" spans="2:2" ht="29.25" customHeight="1">
-      <c r="B118" s="173"/>
-    </row>
-    <row r="119" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B119" s="173"/>
-    </row>
-    <row r="120" spans="2:2" ht="29.25" customHeight="1">
-      <c r="B120" s="174" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" ht="29.25" customHeight="1">
-      <c r="B121" s="174"/>
-    </row>
-    <row r="122" spans="2:2" ht="29.25" customHeight="1">
-      <c r="B122" s="174"/>
-    </row>
-    <row r="123" spans="2:2" ht="29.25" customHeight="1">
-      <c r="B123" s="174"/>
-    </row>
-    <row r="124" spans="2:2" ht="29.25" customHeight="1">
-      <c r="B124" s="174"/>
-    </row>
-    <row r="125" spans="2:2" ht="29.25" customHeight="1">
-      <c r="B125" s="173" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" ht="29.25" customHeight="1">
-      <c r="B126" s="173"/>
-    </row>
-    <row r="127" spans="2:2" ht="29.25" customHeight="1">
-      <c r="B127" s="173"/>
-    </row>
-    <row r="128" spans="2:2" ht="29.25" customHeight="1">
-      <c r="B128" s="116"/>
-    </row>
-    <row r="129" spans="2:22" ht="29.25" customHeight="1">
-      <c r="B129" s="116"/>
-    </row>
-    <row r="130" spans="2:22" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B130" s="89"/>
-    </row>
-    <row r="131" spans="2:22" ht="38.25" thickTop="1">
-      <c r="B131" s="146" t="s">
+      <c r="C131" s="86"/>
+      <c r="D131" s="86"/>
+      <c r="E131" s="86"/>
+      <c r="F131" s="86"/>
+      <c r="G131" s="86"/>
+      <c r="H131" s="86"/>
+      <c r="I131" s="86"/>
+      <c r="J131" s="86"/>
+      <c r="K131" s="86"/>
+      <c r="L131" s="86"/>
+      <c r="M131" s="86"/>
+      <c r="N131" s="86"/>
+      <c r="O131" s="86"/>
+      <c r="P131" s="86"/>
+      <c r="Q131" s="86"/>
+      <c r="R131" s="86"/>
+      <c r="S131" s="86"/>
+      <c r="T131" s="86"/>
+      <c r="U131" s="86"/>
+      <c r="V131" s="86"/>
+    </row>
+    <row r="132" spans="2:22" ht="29.25" customHeight="1">
+      <c r="B132" s="174" t="s">
         <v>202</v>
       </c>
-      <c r="C131" s="91"/>
-      <c r="D131" s="91"/>
-      <c r="E131" s="91"/>
-      <c r="F131" s="91"/>
-      <c r="G131" s="91"/>
-      <c r="H131" s="91"/>
-      <c r="I131" s="91"/>
-      <c r="J131" s="91"/>
-      <c r="K131" s="91"/>
-      <c r="L131" s="91"/>
-      <c r="M131" s="91"/>
-      <c r="N131" s="91"/>
-      <c r="O131" s="91"/>
-      <c r="P131" s="91"/>
-      <c r="Q131" s="91"/>
-      <c r="R131" s="91"/>
-      <c r="S131" s="91"/>
-      <c r="T131" s="91"/>
-      <c r="U131" s="91"/>
-      <c r="V131" s="91"/>
-    </row>
-    <row r="132" spans="2:22" ht="29.25" customHeight="1">
-      <c r="B132" s="173" t="s">
+    </row>
+    <row r="133" spans="2:22" ht="29.25" customHeight="1">
+      <c r="B133" s="174"/>
+    </row>
+    <row r="134" spans="2:22" ht="29.25" customHeight="1">
+      <c r="B134" s="174" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="133" spans="2:22" ht="29.25" customHeight="1">
-      <c r="B133" s="173"/>
-    </row>
-    <row r="134" spans="2:22" ht="29.25" customHeight="1">
-      <c r="B134" s="173" t="s">
-        <v>204</v>
-      </c>
-    </row>
     <row r="135" spans="2:22" ht="29.25" customHeight="1">
-      <c r="B135" s="173"/>
+      <c r="B135" s="174"/>
     </row>
     <row r="136" spans="2:22" ht="29.25" customHeight="1">
-      <c r="B136" s="173"/>
+      <c r="B136" s="174"/>
     </row>
     <row r="137" spans="2:22" ht="29.25" customHeight="1">
-      <c r="B137" s="173"/>
+      <c r="B137" s="174"/>
     </row>
     <row r="138" spans="2:22" ht="29.25" customHeight="1">
-      <c r="B138" s="173"/>
+      <c r="B138" s="174"/>
     </row>
     <row r="139" spans="2:22" ht="29.25" customHeight="1">
-      <c r="B139" s="173"/>
+      <c r="B139" s="174"/>
     </row>
     <row r="140" spans="2:22" ht="29.25" customHeight="1">
-      <c r="B140" s="173"/>
+      <c r="B140" s="174"/>
     </row>
     <row r="141" spans="2:22" ht="29.25" customHeight="1">
-      <c r="B141" s="89"/>
+      <c r="B141" s="84"/>
     </row>
     <row r="142" spans="2:22">
-      <c r="B142" s="90"/>
-      <c r="C142" s="90"/>
-      <c r="D142" s="105"/>
-      <c r="E142" s="106"/>
-      <c r="F142" s="90"/>
-      <c r="G142" s="90"/>
+      <c r="B142" s="85"/>
+      <c r="C142" s="85"/>
+      <c r="D142" s="100"/>
+      <c r="E142" s="101"/>
+      <c r="F142" s="85"/>
+      <c r="G142" s="85"/>
     </row>
     <row r="143" spans="2:22">
-      <c r="B143" s="90"/>
-      <c r="C143" s="90"/>
-      <c r="D143" s="105"/>
-      <c r="E143" s="106"/>
-      <c r="F143" s="90"/>
-      <c r="G143" s="90"/>
+      <c r="B143" s="85"/>
+      <c r="C143" s="85"/>
+      <c r="D143" s="100"/>
+      <c r="E143" s="101"/>
+      <c r="F143" s="85"/>
+      <c r="G143" s="85"/>
     </row>
     <row r="144" spans="2:22">
-      <c r="B144" s="90"/>
-      <c r="C144" s="90"/>
-      <c r="D144" s="105"/>
-      <c r="E144" s="106"/>
-      <c r="F144" s="90"/>
-      <c r="G144" s="90"/>
+      <c r="B144" s="85"/>
+      <c r="C144" s="85"/>
+      <c r="D144" s="100"/>
+      <c r="E144" s="101"/>
+      <c r="F144" s="85"/>
+      <c r="G144" s="85"/>
     </row>
     <row r="145" spans="2:7">
-      <c r="B145" s="90"/>
-      <c r="C145" s="90"/>
-      <c r="D145" s="105"/>
-      <c r="E145" s="106"/>
-      <c r="F145" s="90"/>
-      <c r="G145" s="90"/>
+      <c r="B145" s="85"/>
+      <c r="C145" s="85"/>
+      <c r="D145" s="100"/>
+      <c r="E145" s="101"/>
+      <c r="F145" s="85"/>
+      <c r="G145" s="85"/>
     </row>
     <row r="146" spans="2:7">
-      <c r="B146" s="90"/>
-      <c r="C146" s="90"/>
-      <c r="D146" s="105"/>
-      <c r="E146" s="106"/>
-      <c r="F146" s="90"/>
-      <c r="G146" s="90"/>
+      <c r="B146" s="85"/>
+      <c r="C146" s="85"/>
+      <c r="D146" s="100"/>
+      <c r="E146" s="101"/>
+      <c r="F146" s="85"/>
+      <c r="G146" s="85"/>
     </row>
     <row r="147" spans="2:7">
-      <c r="B147" s="90"/>
-      <c r="C147" s="90"/>
-      <c r="D147" s="105"/>
-      <c r="E147" s="106"/>
-      <c r="F147" s="90"/>
-      <c r="G147" s="90"/>
+      <c r="B147" s="85"/>
+      <c r="C147" s="85"/>
+      <c r="D147" s="100"/>
+      <c r="E147" s="101"/>
+      <c r="F147" s="85"/>
+      <c r="G147" s="85"/>
     </row>
     <row r="148" spans="2:7">
-      <c r="B148" s="90"/>
-      <c r="C148" s="90"/>
-      <c r="D148" s="90"/>
-      <c r="E148" s="90"/>
-      <c r="F148" s="90"/>
-      <c r="G148" s="90"/>
+      <c r="B148" s="85"/>
+      <c r="C148" s="85"/>
+      <c r="D148" s="85"/>
+      <c r="E148" s="85"/>
+      <c r="F148" s="85"/>
+      <c r="G148" s="85"/>
     </row>
     <row r="149" spans="2:7">
-      <c r="B149" s="90"/>
-      <c r="C149" s="90"/>
-      <c r="D149" s="90"/>
-      <c r="E149" s="90"/>
-      <c r="F149" s="90"/>
-      <c r="G149" s="90"/>
+      <c r="B149" s="85"/>
+      <c r="C149" s="85"/>
+      <c r="D149" s="85"/>
+      <c r="E149" s="85"/>
+      <c r="F149" s="85"/>
+      <c r="G149" s="85"/>
     </row>
     <row r="150" spans="2:7">
-      <c r="B150" s="90"/>
-      <c r="C150" s="90"/>
-      <c r="D150" s="90"/>
-      <c r="E150" s="90"/>
-      <c r="F150" s="90"/>
-      <c r="G150" s="90"/>
+      <c r="B150" s="85"/>
+      <c r="C150" s="85"/>
+      <c r="D150" s="85"/>
+      <c r="E150" s="85"/>
+      <c r="F150" s="85"/>
+      <c r="G150" s="85"/>
     </row>
     <row r="151" spans="2:7">
-      <c r="B151" s="90"/>
-      <c r="C151" s="90"/>
-      <c r="D151" s="90"/>
-      <c r="E151" s="90"/>
-      <c r="F151" s="90"/>
-      <c r="G151" s="90"/>
+      <c r="B151" s="85"/>
+      <c r="C151" s="85"/>
+      <c r="D151" s="85"/>
+      <c r="E151" s="85"/>
+      <c r="F151" s="85"/>
+      <c r="G151" s="85"/>
     </row>
     <row r="164" spans="2:2">
-      <c r="B164" s="156" t="s">
+      <c r="B164" s="151" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="151" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="156" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -25573,136 +25543,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="G1" s="155" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="16"/>
+      <c r="G1" s="150" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="13"/>
     </row>
     <row r="6" spans="2:9" ht="18.75">
-      <c r="B6" s="153" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="152" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="90"/>
+      <c r="B6" s="148" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="144"/>
+      <c r="D6" s="147" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="85"/>
     </row>
     <row r="7" spans="2:9" ht="330.75">
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="142" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="111"/>
+      <c r="D7" s="143" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="85"/>
+    </row>
+    <row r="8" spans="2:9" s="85" customFormat="1" ht="15.75">
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+    </row>
+    <row r="9" spans="2:9" ht="236.25">
+      <c r="B9" s="142" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="148" t="s">
+      <c r="C9" s="111"/>
+      <c r="D9" s="143" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="90"/>
-    </row>
-    <row r="8" spans="2:9" s="90" customFormat="1" ht="15.75">
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-    </row>
-    <row r="9" spans="2:9" ht="236.25">
-      <c r="B9" s="147" t="s">
+      <c r="E9" s="85"/>
+    </row>
+    <row r="10" spans="2:9" s="85" customFormat="1" ht="15.75">
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+    </row>
+    <row r="11" spans="2:9" ht="252">
+      <c r="B11" s="142" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="148" t="s">
+      <c r="C11" s="111"/>
+      <c r="D11" s="143" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="85"/>
+    </row>
+    <row r="12" spans="2:9" s="85" customFormat="1" ht="15.75">
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+    </row>
+    <row r="13" spans="2:9" ht="252">
+      <c r="B13" s="142" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="145"/>
+      <c r="D13" s="146" t="s">
         <v>213</v>
       </c>
-      <c r="E9" s="90"/>
-    </row>
-    <row r="10" spans="2:9" s="90" customFormat="1" ht="15.75">
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-    </row>
-    <row r="11" spans="2:9" ht="252">
-      <c r="B11" s="147" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="148" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" s="90"/>
-    </row>
-    <row r="12" spans="2:9" s="90" customFormat="1" ht="15.75">
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-    </row>
-    <row r="13" spans="2:9" ht="252">
-      <c r="B13" s="147" t="s">
+    </row>
+    <row r="14" spans="2:9" ht="15.75">
+      <c r="B14" s="111"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+    </row>
+    <row r="15" spans="2:9" ht="363.75" customHeight="1">
+      <c r="B15" s="142" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="150"/>
-      <c r="D13" s="151" t="s">
+      <c r="C15" s="145"/>
+      <c r="D15" s="143" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15.75">
-      <c r="B14" s="116"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-    </row>
-    <row r="15" spans="2:9" ht="363.75" customHeight="1">
-      <c r="B15" s="147" t="s">
-        <v>211</v>
-      </c>
-      <c r="C15" s="150"/>
-      <c r="D15" s="148" t="s">
+    <row r="16" spans="2:9" ht="141.75">
+      <c r="B16" s="142"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="143" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="141.75">
-      <c r="B16" s="147"/>
-      <c r="C16" s="150"/>
-      <c r="D16" s="148" t="s">
+    <row r="17" spans="2:4" ht="15.75">
+      <c r="B17" s="111"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+    </row>
+    <row r="18" spans="2:4" ht="110.25">
+      <c r="B18" s="142" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="15.75">
-      <c r="B17" s="116"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="150"/>
-    </row>
-    <row r="18" spans="2:4" ht="110.25">
-      <c r="B18" s="147" t="s">
+      <c r="C18" s="145"/>
+      <c r="D18" s="143" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.75">
+      <c r="D19" s="149"/>
+    </row>
+    <row r="20" spans="2:4" ht="129">
+      <c r="D20" s="146" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="150"/>
-      <c r="D18" s="148" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15.75">
-      <c r="D19" s="154"/>
-    </row>
-    <row r="20" spans="2:4" ht="129">
-      <c r="D20" s="151" t="s">
+    </row>
+    <row r="22" spans="2:4" ht="176.25">
+      <c r="D22" s="143" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="176.25">
-      <c r="D22" s="148" t="s">
+    <row r="24" spans="2:4" ht="144.75">
+      <c r="D24" s="146" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="144.75">
-      <c r="D24" s="151" t="s">
+    <row r="25" spans="2:4">
+      <c r="B25" s="151" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="156" t="s">
-        <v>221</v>
-      </c>
-    </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="156" t="s">
-        <v>224</v>
+      <c r="B27" s="151" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
